--- a/medicine/Hématologie/Hémodilution/Hémodilution.xlsx
+++ b/medicine/Hématologie/Hémodilution/Hémodilution.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>H%C3%A9modilution</t>
+          <t>Hémodilution</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">L’hémodilution est la dilution du sang.
 Elle peut se produire lors de l’afflux de liquides des tissus vers le sang, par exemple pour compenser la diminution de la masse sanguine lors d’une hémorragie. 
